--- a/public/exel/sns_highschool.xlsx
+++ b/public/exel/sns_highschool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sbfp_ao_system\public\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FE3FC5-BD84-46B6-913D-8E6342CA4688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2565F3B0-6CA3-4E3E-8BEB-8E91DAF5D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A97BA7C1-031B-4AE1-ABEF-59888A293735}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Department of Education</t>
   </si>
@@ -146,14 +146,20 @@
     <t>GRAND TOTAL:</t>
   </si>
   <si>
-    <t>sirronnie69@yahoo.com</t>
+    <t>Prepared by :</t>
+  </si>
+  <si>
+    <t>(Focal Person Name)</t>
+  </si>
+  <si>
+    <t>SBFP DepEd Focal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +275,26 @@
       <sz val="9"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -863,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +1039,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1372,10 +1409,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0D2C26-6BD0-48CE-A8F3-E41AEC150704}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Y4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1915,9 +1955,9 @@
       <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="13" t="str">
         <f>IF($A$42="","",IF(C10="","",SUM(C10,C11)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D12" s="14">
         <f>SUM(D10:D11)</f>
@@ -1925,7 +1965,7 @@
       </c>
       <c r="E12" s="15" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F12" s="14">
         <f>SUM(F10:F11)</f>
@@ -2191,9 +2231,9 @@
       <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="13" t="str">
         <f>IF($A$42="","",IF(C13="","",SUM(C13,C14)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D15" s="14">
         <f>SUM(D13:D14)</f>
@@ -2201,7 +2241,7 @@
       </c>
       <c r="E15" s="15" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F15" s="14">
         <f>SUM(F13:F14)</f>
@@ -2467,9 +2507,9 @@
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="13" t="str">
         <f>IF($A$42="","",IF(C16="","",SUM(C16,C17)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D18" s="14">
         <f>SUM(D16:D17)</f>
@@ -2477,7 +2517,7 @@
       </c>
       <c r="E18" s="15" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F18" s="14">
         <f>SUM(F16:F17)</f>
@@ -2743,9 +2783,9 @@
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="13" t="str">
         <f>IF($A$42="","",IF(C19="","",SUM(C19,C20)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D21" s="14">
         <f>SUM(D19:D20)</f>
@@ -2753,7 +2793,7 @@
       </c>
       <c r="E21" s="15" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F21" s="14">
         <f>SUM(F19:F20)</f>
@@ -3019,9 +3059,9 @@
       <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="13" t="str">
         <f>IF($A$42="","",IF(C22="","",SUM(C22,C23)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D24" s="14">
         <f>SUM(D22:D23)</f>
@@ -3029,7 +3069,7 @@
       </c>
       <c r="E24" s="15" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F24" s="14">
         <f>SUM(F22:F23)</f>
@@ -3295,9 +3335,9 @@
       <c r="B27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="17" t="str">
         <f>IF($A$42="","",IF(C25="","",SUM(C25,C26)))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D27" s="14">
         <f>SUM(D25:D26)</f>
@@ -3305,7 +3345,7 @@
       </c>
       <c r="E27" s="15" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F27" s="14">
         <f>SUM(F25:F26)</f>
@@ -3738,86 +3778,98 @@
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
+    <row r="33" spans="1:25" s="69" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A33" s="67"/>
+      <c r="B33" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+    </row>
+    <row r="34" spans="1:25" s="69" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A34" s="67"/>
+      <c r="B34" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+    </row>
+    <row r="35" spans="1:25" s="69" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A35" s="67"/>
+      <c r="B35" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="26"/>
@@ -3982,9 +4034,7 @@
       <c r="Y41" s="26"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="A42" s="27"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
@@ -29877,7 +29927,13 @@
       <c r="Y1000" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="33">
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="P35:S35"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:C9"/>
     <mergeCell ref="D7:E8"/>
@@ -29906,10 +29962,8 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A42" r:id="rId1" xr:uid="{5B2AEC68-1472-407F-A097-1A52161B595F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>